--- a/biology/Microbiologie/Pseudourostylidae/Pseudourostylidae.xlsx
+++ b/biology/Microbiologie/Pseudourostylidae/Pseudourostylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pseudourostylidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Urostylida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Pseudourostyla, composé du préfixe pseudo-, « faux, et du suffixe -urostyla, par allusion au genre Urostyla Ehrenberg, 1830 (famille des Urostylidae), littéralement « faux Urostyla ».
 </t>
@@ -544,13 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genre type
-Pseudourostyla a un corps cellulaire de forme allongée, avec une région postérieure largement arrondie. On observe au moins 2 et généralement plusieurs rangées de cirres marginaux de chaque côté ; 2 rangées de cirres médio-ventraux disposés en zigzag s'étendant dans la région frontale. Il n’y a pas d'autres cirres en zone frontale sauf un cirrus buccal. Des cirres transversaux sont présents. La zone adorale de membranelles (AZM)[note 1] est réduite et occupe le tiers antérieur du corps. 
-Il existe de nombreux macronucléus dispersés dans tout le corps[1].
-Pseudourostyla et Urostyla
-Le genre Pseudourostyla fut séparé du genre Urostyla principalement sur la base de la possession de cirres médio-ventraux. Cependant, Jerka-Dziadosz a découvert que Urostyla grandis Ehrenberg, 1830 (espèce type de la famille des Urostylidae) a également des cirres médio-ventraux, ce qui semblait invalider cette distinction.
-Néanmoins, d'autres différences structurelles et morphogénétiques ont rendu nécessaire la séparation des genres Pseudourostyla et Urostyla dans deux familles distinctes.
-En effet, Pseudourostyla cristata (Jerka-Dziadosz, 1964) présente un schéma de cirres frontaux similaire à celui de Keronopsis (famille des Keronidae), tandis que les espèces d'Urostyla ressemblent plus étroitement à Holosticha (famille des Holostichidae) et Uroleptus (famille des Rigidothrichidae) quant à la structure des cirres frontaux[1].
+          <t>Genre type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudourostyla a un corps cellulaire de forme allongée, avec une région postérieure largement arrondie. On observe au moins 2 et généralement plusieurs rangées de cirres marginaux de chaque côté ; 2 rangées de cirres médio-ventraux disposés en zigzag s'étendant dans la région frontale. Il n’y a pas d'autres cirres en zone frontale sauf un cirrus buccal. Des cirres transversaux sont présents. La zone adorale de membranelles (AZM)[note 1] est réduite et occupe le tiers antérieur du corps. 
+Il existe de nombreux macronucléus dispersés dans tout le corps.
 </t>
         </is>
       </c>
@@ -576,12 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Pseudourostylidae ont un répartition mondiale[2] dans toutes sortes de milieux (eaux douces ou saumâtres, milieux terrestres, lacustres ou marins)[3].
+          <t>Pseudourostyla et Urostyla</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pseudourostyla fut séparé du genre Urostyla principalement sur la base de la possession de cirres médio-ventraux. Cependant, Jerka-Dziadosz a découvert que Urostyla grandis Ehrenberg, 1830 (espèce type de la famille des Urostylidae) a également des cirres médio-ventraux, ce qui semblait invalider cette distinction.
+Néanmoins, d'autres différences structurelles et morphogénétiques ont rendu nécessaire la séparation des genres Pseudourostyla et Urostyla dans deux familles distinctes.
+En effet, Pseudourostyla cristata (Jerka-Dziadosz, 1964) présente un schéma de cirres frontaux similaire à celui de Keronopsis (famille des Keronidae), tandis que les espèces d'Urostyla ressemblent plus étroitement à Holosticha (famille des Holostichidae) et Uroleptus (famille des Rigidothrichidae) quant à la structure des cirres frontaux.
 </t>
         </is>
       </c>
@@ -607,12 +630,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pseudourostylidae ont un répartition mondiale dans toutes sortes de milieux (eaux douces ou saumâtres, milieux terrestres, lacustres ou marins).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pseudourostylidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudourostylidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 mars 2023)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 mars 2023) :
 Hemicycliostyla Stokes, 1886
 Hemicylcliostyla : erreur ⇔ Hemicycliostyla
 Pseudourostyla Borror, 1972 genre type
@@ -620,33 +678,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Pseudourostylidae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pseudourostylidae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Pseudourostylidae Jankowksi, 1979[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Pseudourostylidae Jankowksi, 1979.
 </t>
         </is>
       </c>
